--- a/data/trans_bre/P37-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P37-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.634256033616774</v>
+        <v>-8.872994046433318</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.399598455593478</v>
+        <v>-6.611482849484116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.732035024115095</v>
+        <v>-4.766114813202967</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.304534565800057</v>
+        <v>-1.741840750898816</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4927806103070658</v>
+        <v>-0.5121481422561088</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3255674735228061</v>
+        <v>-0.3317751787758984</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2712920020232407</v>
+        <v>-0.2809196289021736</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.04243376946864238</v>
+        <v>-0.04950086655780123</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.201835714637199</v>
+        <v>2.641369526981583</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.05137926455589</v>
+        <v>5.988002544380443</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.716919465439672</v>
+        <v>7.657073852811992</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.35532665982891</v>
+        <v>11.6799962699242</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2568352968717529</v>
+        <v>0.2196426294134443</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4676394439891302</v>
+        <v>0.4473125332721046</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6630338497600508</v>
+        <v>0.6405235161683267</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4568187536685273</v>
+        <v>0.4618035614438011</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.160489884922274</v>
+        <v>-2.594572274103187</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.176754047807218</v>
+        <v>-5.529687557479139</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.077656062092642</v>
+        <v>-6.838282875705522</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.098154034580877</v>
+        <v>-2.591723376474308</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1728365749982008</v>
+        <v>-0.1908088218588748</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2574395599821564</v>
+        <v>-0.2723124766712776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3883131788859354</v>
+        <v>-0.3766509114594147</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06976714600399304</v>
+        <v>-0.08580544776549645</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.129663342552076</v>
+        <v>6.291656929589859</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.994466838173457</v>
+        <v>4.882901136465143</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.634153022425511</v>
+        <v>1.741060235336305</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.642087557915467</v>
+        <v>8.646387209783187</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7763139864843789</v>
+        <v>0.7892913027130052</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3386231389613714</v>
+        <v>0.3170409960786447</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1245681408109492</v>
+        <v>0.1471071443382364</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3556810117790861</v>
+        <v>0.3605299737184291</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.823845476376374</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.271398826949646</v>
+        <v>4.271398826949651</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2548232753313956</v>
@@ -849,7 +849,7 @@
         <v>0.1505756658864425</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1583030877733855</v>
+        <v>0.1583030877733857</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.767093089857176</v>
+        <v>-1.833951364029138</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.638587697035028</v>
+        <v>-8.104462085734429</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.807436056433417</v>
+        <v>-3.284395867458107</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.264924859981008</v>
+        <v>-1.407570280766185</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1062546403671251</v>
+        <v>-0.1097938453528173</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3418010096586282</v>
+        <v>-0.33453355700251</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1734155512224246</v>
+        <v>-0.1453046415001671</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.07245424832658082</v>
+        <v>-0.04570595316597395</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.27097827037225</v>
+        <v>9.842035512275896</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.426829481125989</v>
+        <v>3.795050367355661</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.868473559218797</v>
+        <v>9.443841868499709</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.535700605313609</v>
+        <v>9.987973370378427</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8866759808290355</v>
+        <v>0.8232361625510657</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.261761177449406</v>
+        <v>0.2316132808657673</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5514198449945357</v>
+        <v>0.6321596748946378</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4058759743842812</v>
+        <v>0.4206522979472312</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2877100234259191</v>
+        <v>-0.1155864445885621</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.3478473865779663</v>
+        <v>-0.4476037753532547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.56810386344668</v>
+        <v>-3.822454077095584</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.843678417305139</v>
+        <v>-0.7736869999966123</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02465829299593478</v>
+        <v>-0.02484672665609881</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02085058729972223</v>
+        <v>-0.0301142734501072</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2086337190145489</v>
+        <v>-0.1738295753548783</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04884146812709798</v>
+        <v>-0.02274283783622058</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.76142199363005</v>
+        <v>9.783974872296948</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.28868527911051</v>
+        <v>11.86641619101309</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.747064192206585</v>
+        <v>7.52525459773906</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.3147584094183</v>
+        <v>12.6592162629606</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.995316260042864</v>
+        <v>1.056461295451328</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7649946479645301</v>
+        <v>0.8214030444255265</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4681137929515681</v>
+        <v>0.4644908553967311</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4949960592747087</v>
+        <v>0.502776141877993</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.64288694598158</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.719339167111578</v>
+        <v>8.719339167111572</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2806065169851651</v>
@@ -1049,7 +1049,7 @@
         <v>0.0487491219255418</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3001765852731775</v>
+        <v>0.3001765852731773</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.339904903172096</v>
+        <v>-3.168566127249245</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.441704354194438</v>
+        <v>-5.378945731333522</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.204672174315048</v>
+        <v>-6.146294622218058</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.684173470013326</v>
+        <v>1.849951851650094</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1764340263197796</v>
+        <v>-0.178431543640229</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2734230129478943</v>
+        <v>-0.2502124485043947</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3743025015523079</v>
+        <v>-0.3698638967883301</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.04222342382274379</v>
+        <v>0.05601295776706457</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.06008954139673</v>
+        <v>11.97024960935411</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.20541113608981</v>
+        <v>10.0467597796165</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.073800140669471</v>
+        <v>6.800921932138883</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.10291289137308</v>
+        <v>14.89080895068887</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9421819434258616</v>
+        <v>0.985599955920711</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7818576309637604</v>
+        <v>0.8341041175092785</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6943510344227343</v>
+        <v>0.6964795730694977</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6002584182828689</v>
+        <v>0.582132656347717</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>4.115197708297222</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10.75653625805671</v>
+        <v>10.7565362580567</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.342888300319531</v>
@@ -1149,7 +1149,7 @@
         <v>0.2136217414963777</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4087327111367597</v>
+        <v>0.4087327111367592</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.41638353653544</v>
+        <v>-1.495646071490505</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.696080091154298</v>
+        <v>-5.681212763581684</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.139865264181876</v>
+        <v>-3.031387703489414</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.409409015667908</v>
+        <v>5.08449826187216</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.08899427343054073</v>
+        <v>-0.09746245166626924</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2350969340672636</v>
+        <v>-0.2331191932575804</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1567939267528992</v>
+        <v>-0.1338176173075335</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1526631979980766</v>
+        <v>0.1769719072369975</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.92396774392036</v>
+        <v>10.55197060785054</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.399481379948254</v>
+        <v>8.713797506942079</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10.96831539216474</v>
+        <v>11.54774678118516</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16.29895246098011</v>
+        <v>16.7057718524936</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.160941057649456</v>
+        <v>1.026148900909104</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4533046517092363</v>
+        <v>0.4830168984750727</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6567161306248189</v>
+        <v>0.747663735148989</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7084218965707563</v>
+        <v>0.7180663963707629</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>2.774996443067376</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.672529705971717</v>
+        <v>3.672529705971711</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1406623512965061</v>
@@ -1249,7 +1249,7 @@
         <v>0.1677490079370633</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1121785471220135</v>
+        <v>0.1121785471220133</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.960119640231819</v>
+        <v>-2.024941064734694</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.824844376395932</v>
+        <v>-4.821993048107298</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.855569422260464</v>
+        <v>-1.660110620116524</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.243123358057221</v>
+        <v>-1.066081221313004</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1145296167036713</v>
+        <v>-0.1124157435848352</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2469305782619141</v>
+        <v>-0.2462833889127177</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.09581970345659828</v>
+        <v>-0.09552498978401543</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.0364543783062532</v>
+        <v>-0.02862790676316937</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.930345953358616</v>
+        <v>6.279458358849957</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.704368792757087</v>
+        <v>3.687214789847314</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.258573263348296</v>
+        <v>6.843594203457302</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.248191485719381</v>
+        <v>8.883894319731843</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5471564279494036</v>
+        <v>0.4881583385459725</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2411958894275704</v>
+        <v>0.2509111788916651</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5088529626293252</v>
+        <v>0.477389960011135</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.275098871568264</v>
+        <v>0.2999664233893565</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>1.92695077554655</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.754476544650988</v>
+        <v>4.754476544650982</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.01510836671932092</v>
@@ -1349,7 +1349,7 @@
         <v>0.1614390312098928</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1282902434016074</v>
+        <v>0.1282902434016072</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.83330474158638</v>
+        <v>-4.01677540229795</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-3.404956600441412</v>
+        <v>-3.647626298231871</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.511623699060429</v>
+        <v>-1.561853412748271</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04321393988289486</v>
+        <v>-0.3285097399374046</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.225952227522851</v>
+        <v>-0.2384620826878993</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1926182438779027</v>
+        <v>-0.2000631638981815</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1252592815808797</v>
+        <v>-0.1130327683126314</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.003242886003768165</v>
+        <v>-0.004985361071879986</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.847120626588236</v>
+        <v>3.399761652384317</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.837610505136012</v>
+        <v>4.008107689242729</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.329258748517943</v>
+        <v>5.782054399204982</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9.029430326632189</v>
+        <v>9.42481155118614</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2880513419737518</v>
+        <v>0.2534103504171732</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2511546194868113</v>
+        <v>0.2828849593030163</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4952569487085308</v>
+        <v>0.5766867626110087</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2655356274138908</v>
+        <v>0.2743593366976868</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>1.548545922044658</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5.070686132510366</v>
+        <v>5.070686132510355</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1421508969526766</v>
@@ -1449,7 +1449,7 @@
         <v>0.09836866370166046</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.1639779295424839</v>
+        <v>0.1639779295424836</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3711407881959419</v>
+        <v>0.3007184654910354</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.352257439982382</v>
+        <v>-1.454013131550714</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.339361056848153</v>
+        <v>-0.2657529030055137</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.995134033648083</v>
+        <v>2.98380244845058</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.02602726350281433</v>
+        <v>0.0206992425209637</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.07451690616898314</v>
+        <v>-0.07773170477975111</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.02018695278469205</v>
+        <v>-0.01716788689338213</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.09331217708034459</v>
+        <v>0.09195134684883524</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.968739008010021</v>
+        <v>3.783272255908646</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.391254047246718</v>
+        <v>2.593594372549173</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.407370926557471</v>
+        <v>3.317687373124776</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.014872985108305</v>
+        <v>7.213326423910103</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3035113030653304</v>
+        <v>0.2898399819219594</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1397242253348349</v>
+        <v>0.1573644432727679</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.233760660825215</v>
+        <v>0.2190188971939803</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2361074331520234</v>
+        <v>0.2441720898028267</v>
       </c>
     </row>
     <row r="31">
